--- a/ValueSet-perforation-procedures-vs.xlsx
+++ b/ValueSet-perforation-procedures-vs.xlsx
@@ -84,7 +84,11 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet containing SNOMED CT codes representing a range of perforation procedures.</t>
+    <t>ValueSet restricting Procedure codes to stroke **reperfusion interventions**:
+- IV thrombolysis (IVT)
+- Mechanical thrombectomy (MT)
+**Primary use-case**
+- Required binding for `StrokeThrombolysisProcedureProfile.code` (which covers reperfusion procedures in this IG).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-perforation-procedures-vs.xlsx
+++ b/ValueSet-perforation-procedures-vs.xlsx
@@ -84,11 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ValueSet restricting Procedure codes to stroke **reperfusion interventions**:
+    <t xml:space="preserve">ValueSet restricting Procedure codes to stroke **reperfusion interventions**:
 - IV thrombolysis (IVT)
 - Mechanical thrombectomy (MT)
-**Primary use-case**
-- Required binding for `StrokeThrombolysisProcedureProfile.code` (which covers reperfusion procedures in this IG).</t>
+</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-perforation-procedures-vs.xlsx
+++ b/ValueSet-perforation-procedures-vs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
